--- a/data/trans_orig/P34D2H-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC70E6A9-3E6C-4F25-B647-EEC9ECEE5DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9495B76E-E911-4826-B5B0-BF36497D7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C8F6C01-B940-4AED-8881-2BB22093F420}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E93A77B-9810-47B6-8D64-5EAB302D0D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="270">
   <si>
     <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
   </si>
@@ -86,682 +86,682 @@
     <t>14,15%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>7,76%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>7,46%</t>
@@ -770,82 +770,79 @@
     <t>28,9%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>33,07%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>44,15%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>46,03%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1260,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114A4C6D-D5CC-444B-938C-9593BD87F194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7301274F-AD90-44F7-82CA-04424FF5D067}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2034,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2046,13 @@
         <v>1022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2079,13 +2076,13 @@
         <v>1022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2097,13 @@
         <v>8607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2130,13 +2127,13 @@
         <v>9592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2148,13 @@
         <v>1237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2172,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2181,13 +2178,13 @@
         <v>2166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2199,13 @@
         <v>2910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2217,13 +2214,13 @@
         <v>1536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2232,13 +2229,13 @@
         <v>4446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,10 +2250,10 @@
         <v>7340</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>100</v>
@@ -2319,13 +2316,13 @@
         <v>899</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2334,13 +2331,13 @@
         <v>7898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2352,13 @@
         <v>22330</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2370,13 +2367,13 @@
         <v>4829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -2385,13 +2382,13 @@
         <v>27159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2403,13 @@
         <v>92407</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -2421,13 +2418,13 @@
         <v>22716</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -2436,13 +2433,13 @@
         <v>115123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2454,13 @@
         <v>150359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2472,13 +2469,13 @@
         <v>48403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>191</v>
@@ -2487,13 +2484,13 @@
         <v>198762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2505,13 @@
         <v>32867</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2523,13 +2520,13 @@
         <v>15280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -2538,13 +2535,13 @@
         <v>48148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2597,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2618,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2633,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2648,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2684,7 +2681,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2699,7 +2696,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2711,13 @@
         <v>1016</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2735,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2744,13 +2741,13 @@
         <v>1016</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2768,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2786,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2801,7 +2798,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2819,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2837,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2852,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2864,13 @@
         <v>1055</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2888,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2897,13 +2894,13 @@
         <v>1055</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2915,13 @@
         <v>1795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2933,13 +2930,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2948,13 +2945,13 @@
         <v>2680</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2966,13 @@
         <v>2802</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2984,13 +2981,13 @@
         <v>1048</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -2999,13 +2996,13 @@
         <v>3850</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3017,13 @@
         <v>29837</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -3035,13 +3032,13 @@
         <v>7749</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -3050,13 +3047,13 @@
         <v>37586</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3068,13 @@
         <v>44088</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -3086,13 +3083,13 @@
         <v>28088</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -3101,13 +3098,13 @@
         <v>72176</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3119,13 @@
         <v>14142</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -3137,13 +3134,13 @@
         <v>6816</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -3152,13 +3149,13 @@
         <v>20958</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3223,13 @@
         <v>1472</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3247,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3256,13 +3253,13 @@
         <v>1472</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3274,13 @@
         <v>1022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3298,7 +3295,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3307,13 +3304,13 @@
         <v>1022</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3325,13 @@
         <v>15410</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3343,13 +3340,13 @@
         <v>2049</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -3358,13 +3355,13 @@
         <v>17459</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3376,13 @@
         <v>1237</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3394,13 +3391,13 @@
         <v>929</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3415,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3427,13 @@
         <v>6671</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3445,13 +3442,13 @@
         <v>1536</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3460,13 +3457,13 @@
         <v>8207</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3478,13 @@
         <v>11418</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3496,13 +3493,13 @@
         <v>1709</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -3511,13 +3508,13 @@
         <v>13127</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3529,13 @@
         <v>10041</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3547,13 +3544,13 @@
         <v>1783</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M46" s="7">
         <v>10</v>
@@ -3562,13 +3559,13 @@
         <v>11824</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3580,13 @@
         <v>27439</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3598,10 +3595,10 @@
         <v>5877</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>239</v>
@@ -3637,10 +3634,10 @@
         <v>243</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -3649,13 +3646,13 @@
         <v>32421</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M48" s="7">
         <v>160</v>
@@ -3664,13 +3661,13 @@
         <v>166259</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3682,13 @@
         <v>204497</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -3700,13 +3697,13 @@
         <v>80647</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M49" s="7">
         <v>275</v>
@@ -3715,13 +3712,13 @@
         <v>285144</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3733,13 @@
         <v>50137</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H50" s="7">
         <v>28</v>
@@ -3751,13 +3748,13 @@
         <v>29404</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M50" s="7">
         <v>73</v>
@@ -3766,13 +3763,13 @@
         <v>79541</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3825,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9495B76E-E911-4826-B5B0-BF36497D7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCFBD135-1B10-432C-B58B-FE5C68C78B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E93A77B-9810-47B6-8D64-5EAB302D0D5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9006AA7-9CAD-401F-84E1-97B23E10DB07}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="270">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="280">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -86,34 +86,34 @@
     <t>14,15%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>33,51%</t>
+    <t>38,34%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
   <si>
     <t>6,79%</t>
@@ -122,727 +122,757 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>17,99%</t>
+    <t>17,93%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>7,76%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>33,07%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>44,15%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>46,03%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1257,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7301274F-AD90-44F7-82CA-04424FF5D067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EB1611-AE9F-4EA4-BC8C-10509174E33C}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2100,10 +2130,10 @@
         <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2154,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2163,13 +2193,13 @@
         <v>929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2178,13 +2208,13 @@
         <v>2166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2229,13 @@
         <v>2910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2250,13 +2280,13 @@
         <v>7340</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2265,13 +2295,13 @@
         <v>1709</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2280,13 +2310,13 @@
         <v>9049</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2331,13 @@
         <v>6999</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2316,13 +2346,13 @@
         <v>899</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2331,13 +2361,13 @@
         <v>7898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2382,13 @@
         <v>22330</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2367,13 +2397,13 @@
         <v>4829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -2382,13 +2412,13 @@
         <v>27159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2433,13 @@
         <v>92407</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -2418,13 +2448,13 @@
         <v>22716</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -2433,13 +2463,13 @@
         <v>115123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2484,13 @@
         <v>150359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2469,13 +2499,13 @@
         <v>48403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>191</v>
@@ -2484,13 +2514,13 @@
         <v>198762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2535,13 @@
         <v>32867</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2520,13 +2550,13 @@
         <v>15280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -2535,13 +2565,13 @@
         <v>48148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2627,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2615,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2630,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2645,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2696,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2681,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2696,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2741,13 @@
         <v>1016</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2732,7 +2762,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2741,13 +2771,13 @@
         <v>1016</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2798,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2783,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2798,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2834,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2849,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2894,13 @@
         <v>1055</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2885,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2894,13 +2924,13 @@
         <v>1055</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2945,13 @@
         <v>1795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2930,7 +2960,7 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
@@ -3137,10 +3167,10 @@
         <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -3149,13 +3179,13 @@
         <v>20958</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3253,13 @@
         <v>1472</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3244,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3259,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3304,13 @@
         <v>1022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3295,7 +3325,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3304,13 +3334,13 @@
         <v>1022</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3355,13 @@
         <v>15410</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3340,13 +3370,13 @@
         <v>2049</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -3355,13 +3385,13 @@
         <v>17459</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3406,13 @@
         <v>1237</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3391,13 +3421,13 @@
         <v>929</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3412,7 +3442,7 @@
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3457,13 @@
         <v>6671</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3442,13 +3472,13 @@
         <v>1536</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3457,13 +3487,13 @@
         <v>8207</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3508,13 @@
         <v>11418</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3493,13 +3523,13 @@
         <v>1709</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -3508,13 +3538,13 @@
         <v>13127</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3559,13 @@
         <v>10041</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3544,13 +3574,13 @@
         <v>1783</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M46" s="7">
         <v>10</v>
@@ -3559,13 +3589,13 @@
         <v>11824</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3610,13 @@
         <v>27439</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3595,13 +3625,13 @@
         <v>5877</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M47" s="7">
         <v>31</v>
@@ -3610,13 +3640,13 @@
         <v>33317</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3661,13 @@
         <v>133838</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -3646,13 +3676,13 @@
         <v>32421</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M48" s="7">
         <v>160</v>
@@ -3661,13 +3691,13 @@
         <v>166259</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3712,13 @@
         <v>204497</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -3697,13 +3727,13 @@
         <v>80647</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M49" s="7">
         <v>275</v>
@@ -3712,13 +3742,13 @@
         <v>285144</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3763,13 @@
         <v>50137</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H50" s="7">
         <v>28</v>
@@ -3748,13 +3778,13 @@
         <v>29404</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M50" s="7">
         <v>73</v>
@@ -3763,13 +3793,13 @@
         <v>79541</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3855,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCFBD135-1B10-432C-B58B-FE5C68C78B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12933F8-F808-4B2D-AF7D-E61C018935CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9006AA7-9CAD-401F-84E1-97B23E10DB07}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7DFA05D-D11E-4921-8EAD-24E4BC7D8DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="280">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="189">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,805 +74,532 @@
     <t>0%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1287,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EB1611-AE9F-4EA4-BC8C-10509174E33C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05965B7-9932-457D-A66F-351013E543BB}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1618,10 +1345,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1645,13 +1372,13 @@
         <v>3761</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,13 +1393,13 @@
         <v>3022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1696,13 +1423,13 @@
         <v>3022</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,13 +1444,13 @@
         <v>1247</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1747,13 +1474,13 @@
         <v>1247</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1495,13 @@
         <v>2307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1798,13 +1525,13 @@
         <v>2307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1546,13 @@
         <v>11594</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1834,13 +1561,13 @@
         <v>1956</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -1849,13 +1576,13 @@
         <v>13550</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1597,13 @@
         <v>10050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1885,13 +1612,13 @@
         <v>4156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1900,13 +1627,13 @@
         <v>14206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,49 +1642,49 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>727</v>
       </c>
       <c r="D14" s="7">
-        <v>3128</v>
+        <v>716580</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="7">
+        <v>882</v>
+      </c>
+      <c r="I14" s="7">
+        <v>984593</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1609</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1701173</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7308</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10435</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,54 +1693,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>38</v>
+        <v>762</v>
       </c>
       <c r="D15" s="7">
-        <v>40895</v>
+        <v>754347</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>13</v>
+        <v>889</v>
       </c>
       <c r="I15" s="7">
-        <v>14484</v>
+        <v>991769</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>51</v>
+        <v>1651</v>
       </c>
       <c r="N15" s="7">
-        <v>55379</v>
+        <v>1746116</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2025,13 +1752,13 @@
         <v>1472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2046,7 +1773,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2055,13 +1782,13 @@
         <v>1472</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +1803,13 @@
         <v>1022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2097,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2106,13 +1833,13 @@
         <v>1022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +1854,13 @@
         <v>8607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2142,13 +1869,13 @@
         <v>985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2157,13 +1884,13 @@
         <v>9592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +1905,13 @@
         <v>1237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2193,13 +1920,13 @@
         <v>929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2208,13 +1935,13 @@
         <v>2166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +1956,13 @@
         <v>2910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2244,13 +1971,13 @@
         <v>1536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2259,13 +1986,13 @@
         <v>4446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2007,13 @@
         <v>7340</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2295,13 +2022,13 @@
         <v>1709</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2310,13 +2037,13 @@
         <v>9049</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2058,13 @@
         <v>6999</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2346,13 +2073,13 @@
         <v>899</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2361,13 +2088,13 @@
         <v>7898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2109,13 @@
         <v>22330</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2397,13 +2124,13 @@
         <v>4829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -2412,13 +2139,13 @@
         <v>27159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2160,13 @@
         <v>92407</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -2448,13 +2175,13 @@
         <v>22716</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -2463,13 +2190,13 @@
         <v>115123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2211,13 @@
         <v>150359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2499,13 +2226,13 @@
         <v>48403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>191</v>
@@ -2514,13 +2241,13 @@
         <v>198762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,49 +2256,49 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>29</v>
+        <v>1666</v>
       </c>
       <c r="D26" s="7">
-        <v>32867</v>
+        <v>1771872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
-        <v>15</v>
+        <v>1817</v>
       </c>
       <c r="I26" s="7">
-        <v>15280</v>
+        <v>1897393</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
-        <v>44</v>
+        <v>3483</v>
       </c>
       <c r="N26" s="7">
-        <v>48148</v>
+        <v>3669265</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,54 +2307,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>306</v>
+        <v>1943</v>
       </c>
       <c r="D27" s="7">
-        <v>327551</v>
+        <v>2066556</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
-        <v>98</v>
+        <v>1900</v>
       </c>
       <c r="I27" s="7">
-        <v>97286</v>
+        <v>1979399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
-        <v>404</v>
+        <v>3843</v>
       </c>
       <c r="N27" s="7">
-        <v>424837</v>
+        <v>4045955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2645,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2660,7 +2387,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2675,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2423,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2711,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2726,7 +2453,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2468,13 @@
         <v>1016</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2762,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2771,13 +2498,13 @@
         <v>1016</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2813,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2828,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2864,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2879,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2621,13 @@
         <v>1055</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2915,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2924,13 +2651,13 @@
         <v>1055</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2672,13 @@
         <v>1795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2960,13 +2687,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2975,13 +2702,13 @@
         <v>2680</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2723,13 @@
         <v>2802</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3011,13 +2738,13 @@
         <v>1048</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -3026,13 +2753,13 @@
         <v>3850</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +2774,13 @@
         <v>29837</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -3062,13 +2789,13 @@
         <v>7749</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -3077,13 +2804,13 @@
         <v>37586</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +2825,13 @@
         <v>44088</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -3113,13 +2840,13 @@
         <v>28088</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -3128,13 +2855,13 @@
         <v>72176</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,49 +2870,49 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>13</v>
+        <v>418</v>
       </c>
       <c r="D38" s="7">
-        <v>14142</v>
+        <v>459246</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H38" s="7">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="I38" s="7">
-        <v>6816</v>
+        <v>507961</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M38" s="7">
-        <v>20</v>
+        <v>904</v>
       </c>
       <c r="N38" s="7">
-        <v>20958</v>
+        <v>967207</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,49 +2921,49 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>90</v>
+        <v>495</v>
       </c>
       <c r="D39" s="7">
-        <v>94736</v>
+        <v>539840</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
-        <v>44</v>
+        <v>523</v>
       </c>
       <c r="I39" s="7">
-        <v>44585</v>
+        <v>545730</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M39" s="7">
-        <v>134</v>
+        <v>1018</v>
       </c>
       <c r="N39" s="7">
-        <v>139321</v>
+        <v>1085570</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +2980,13 @@
         <v>1472</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3274,7 +3001,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3283,13 +3010,13 @@
         <v>1472</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3031,13 @@
         <v>1022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3325,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3334,13 +3061,13 @@
         <v>1022</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3082,13 @@
         <v>15410</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3370,13 +3097,13 @@
         <v>2049</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -3385,13 +3112,13 @@
         <v>17459</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3133,13 @@
         <v>1237</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3421,13 +3148,13 @@
         <v>929</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3436,13 +3163,13 @@
         <v>2166</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3184,13 @@
         <v>6671</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3472,13 +3199,13 @@
         <v>1536</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3487,13 +3214,13 @@
         <v>8207</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3235,13 @@
         <v>11418</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3523,13 +3250,13 @@
         <v>1709</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="M45" s="7">
         <v>13</v>
@@ -3538,13 +3265,13 @@
         <v>13127</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3286,13 @@
         <v>10041</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3574,13 +3301,13 @@
         <v>1783</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="M46" s="7">
         <v>10</v>
@@ -3589,13 +3316,13 @@
         <v>11824</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3337,13 @@
         <v>27439</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3625,13 +3352,13 @@
         <v>5877</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="M47" s="7">
         <v>31</v>
@@ -3640,13 +3367,13 @@
         <v>33317</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3388,13 @@
         <v>133838</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -3676,13 +3403,13 @@
         <v>32421</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="M48" s="7">
         <v>160</v>
@@ -3691,13 +3418,13 @@
         <v>166259</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3439,13 @@
         <v>204497</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -3727,13 +3454,13 @@
         <v>80647</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="M49" s="7">
         <v>275</v>
@@ -3742,13 +3469,13 @@
         <v>285144</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3484,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>45</v>
+        <v>2811</v>
       </c>
       <c r="D50" s="7">
-        <v>50137</v>
+        <v>2947697</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="H50" s="7">
-        <v>28</v>
+        <v>3185</v>
       </c>
       <c r="I50" s="7">
-        <v>29404</v>
+        <v>3389946</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="M50" s="7">
-        <v>73</v>
+        <v>5996</v>
       </c>
       <c r="N50" s="7">
-        <v>79541</v>
+        <v>6337644</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,54 +3535,54 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>434</v>
+        <v>3200</v>
       </c>
       <c r="D51" s="7">
-        <v>463182</v>
+        <v>3360742</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H51" s="7">
-        <v>155</v>
+        <v>3312</v>
       </c>
       <c r="I51" s="7">
-        <v>156355</v>
+        <v>3516898</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M51" s="7">
-        <v>589</v>
+        <v>6512</v>
       </c>
       <c r="N51" s="7">
-        <v>619537</v>
+        <v>6877640</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
